--- a/TeamAnishaBrittanyReport.xlsx
+++ b/TeamAnishaBrittanyReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Documents\4th Semester\CS555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0D1F80-79E5-49EC-95C5-EA6D09E8EEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B118992E-3870-45EA-9BF0-34D128ADC7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="634" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="634" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="351">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -998,6 +998,135 @@
   </si>
   <si>
     <t>Make sure family ids are unique</t>
+  </si>
+  <si>
+    <t>T23.01</t>
+  </si>
+  <si>
+    <t>T23.02</t>
+  </si>
+  <si>
+    <t>T23.03</t>
+  </si>
+  <si>
+    <t>T25.01</t>
+  </si>
+  <si>
+    <t>T25.02</t>
+  </si>
+  <si>
+    <t>T25.03</t>
+  </si>
+  <si>
+    <t>T27.01</t>
+  </si>
+  <si>
+    <t>T27.02</t>
+  </si>
+  <si>
+    <t>T27.03</t>
+  </si>
+  <si>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>T29.03</t>
+  </si>
+  <si>
+    <t>Project08.py</t>
+  </si>
+  <si>
+    <t>Project08_Test.py</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>test21</t>
+  </si>
+  <si>
+    <t>test22</t>
+  </si>
+  <si>
+    <t>us15FewerThan15Siblings</t>
+  </si>
+  <si>
+    <t>us16MaleLastNames</t>
+  </si>
+  <si>
+    <t>us21CorrectGenderForRoles</t>
+  </si>
+  <si>
+    <t>us22UniqueIDs</t>
+  </si>
+  <si>
+    <t>316-320</t>
+  </si>
+  <si>
+    <t>322-339</t>
+  </si>
+  <si>
+    <t>341-356</t>
+  </si>
+  <si>
+    <t>358-370</t>
+  </si>
+  <si>
+    <t>48-52</t>
+  </si>
+  <si>
+    <t>54-58</t>
+  </si>
+  <si>
+    <t>60-61</t>
+  </si>
+  <si>
+    <t>63-66</t>
+  </si>
+  <si>
+    <t>- Choosing user stories quickly and not thinking about how to actually implement them (put more time into selecting user stories)</t>
+  </si>
+  <si>
+    <t>- Asking each other for help when there is a problem</t>
+  </si>
+  <si>
+    <t>- Start working on the sprint early in the week</t>
+  </si>
+  <si>
+    <t>- Create a list containing names and birthdays (ex: [[name1, birthday1], [name2, birthday2]])</t>
+  </si>
+  <si>
+    <t>- Compare all names</t>
+  </si>
+  <si>
+    <t>- If the name is the same, compare birthday</t>
+  </si>
+  <si>
+    <t>- Create a list containing names and birthdays (ex: [[name1, birthday1], [name2, birthday2]]) for each family</t>
+  </si>
+  <si>
+    <t>- Get individual's birth date</t>
+  </si>
+  <si>
+    <t>- Get today's date</t>
+  </si>
+  <si>
+    <t>- Subtract the two dates</t>
+  </si>
+  <si>
+    <t>- Check if each individual has a death date</t>
+  </si>
+  <si>
+    <t>- Create an empty list</t>
+  </si>
+  <si>
+    <t>- If they do, add them to the list</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1287,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1242,7 +1371,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1256,6 +1384,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1516,6 +1655,9 @@
                 <c:pt idx="3">
                   <c:v>42569</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>42583</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1536,6 +1678,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,7 +2571,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2520,7 +2665,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2692,14 +2837,14 @@
       <c r="B10" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="41" t="s">
         <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2709,14 +2854,14 @@
       <c r="B11" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="41" t="s">
         <v>82</v>
       </c>
       <c r="D11" t="s">
         <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2733,7 +2878,7 @@
         <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2750,7 +2895,7 @@
         <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2833,7 +2978,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3027,7 +3172,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3120,14 +3265,15 @@
         <v>4</v>
       </c>
       <c r="E4" s="21">
-        <v>77</v>
+        <f xml:space="preserve"> 69+77</f>
+        <v>146</v>
       </c>
       <c r="F4" s="21">
         <v>315</v>
       </c>
       <c r="G4" s="9">
         <f>(E4-E3)/F4*60</f>
-        <v>1.5238095238095237</v>
+        <v>14.666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3144,14 +3290,35 @@
         <f>C4-C5</f>
         <v>4</v>
       </c>
-      <c r="G5" s="9" t="e">
+      <c r="E5" s="21">
+        <f>146+56</f>
+        <v>202</v>
+      </c>
+      <c r="F5" s="21">
+        <v>345</v>
+      </c>
+      <c r="G5" s="9">
         <f>(E5-E4)/F5*60</f>
-        <v>#DIV/0!</v>
+        <v>9.7391304347826075</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>167</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42583</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>C5-C6</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="e">
+        <f>(E6-E5)/F6*60</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -3639,7 +3806,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3903,7 +4070,7 @@
       <c r="L14" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="41" t="s">
         <v>288</v>
       </c>
       <c r="O14" s="29" t="s">
@@ -3912,7 +4079,7 @@
       <c r="P14" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="Q14" s="42" t="s">
+      <c r="Q14" s="41" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3983,7 +4150,7 @@
       <c r="L20" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="41" t="s">
         <v>291</v>
       </c>
       <c r="O20" s="29" t="s">
@@ -3992,7 +4159,7 @@
       <c r="P20" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="Q20" s="42" t="s">
+      <c r="Q20" s="41" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4043,12 +4210,12 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="43" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4061,7 +4228,7 @@
       </c>
     </row>
     <row r="33" spans="2:2" ht="27" x14ac:dyDescent="0.3">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="42" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4076,15 +4243,485 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.84375" customWidth="1"/>
+    <col min="15" max="15" width="14.921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.15234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="21">
+        <v>20</v>
+      </c>
+      <c r="F2" s="21">
+        <v>60</v>
+      </c>
+      <c r="G2" s="21">
+        <v>7</v>
+      </c>
+      <c r="H2" s="21">
+        <v>45</v>
+      </c>
+      <c r="I2" s="38">
+        <v>42557</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="21">
+        <v>30</v>
+      </c>
+      <c r="F8" s="21">
+        <v>90</v>
+      </c>
+      <c r="G8" s="21">
+        <v>20</v>
+      </c>
+      <c r="H8" s="21">
+        <v>75</v>
+      </c>
+      <c r="I8" s="38">
+        <v>42557</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q8" s="41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="21">
+        <v>25</v>
+      </c>
+      <c r="F14" s="21">
+        <v>90</v>
+      </c>
+      <c r="G14" s="21">
+        <v>14</v>
+      </c>
+      <c r="H14" s="21">
+        <v>45</v>
+      </c>
+      <c r="I14" s="38">
+        <v>42567</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q14" s="41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="21">
+        <v>20</v>
+      </c>
+      <c r="F20" s="21">
+        <v>90</v>
+      </c>
+      <c r="G20" s="21">
+        <v>15</v>
+      </c>
+      <c r="H20" s="21">
+        <v>180</v>
+      </c>
+      <c r="I20" s="38">
+        <v>42567</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="M20" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q20" s="41" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="39"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:17" ht="27" x14ac:dyDescent="0.3">
+      <c r="B29" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="40"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="21"/>
+    </row>
+    <row r="33" spans="2:3" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="C33" s="21"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.53515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.3828125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.84375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.84375" bestFit="1" customWidth="1"/>
@@ -4144,63 +4781,63 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>185</v>
+        <v>90</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>186</v>
       </c>
       <c r="D2" t="s">
         <v>195</v>
       </c>
       <c r="E2" s="21">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
-        <v>271</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>308</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>185</v>
+        <v>341</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>185</v>
+      <c r="A5" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>185</v>
+      <c r="A6" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>185</v>
@@ -4212,18 +4849,18 @@
         <v>30</v>
       </c>
       <c r="F8" s="21">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>185</v>
@@ -4231,10 +4868,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>300</v>
+        <v>312</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>342</v>
       </c>
       <c r="C11" t="s">
         <v>185</v>
@@ -4242,10 +4879,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>301</v>
+        <v>313</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>343</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>185</v>
@@ -4256,63 +4893,63 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>186</v>
+        <v>94</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="D14" t="s">
         <v>195</v>
       </c>
       <c r="E14" s="21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F14" s="21">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>186</v>
+        <v>314</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="C17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>186</v>
+        <v>316</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>133</v>
+      <c r="A20" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>186</v>
@@ -4324,37 +4961,37 @@
         <v>20</v>
       </c>
       <c r="F20" s="21">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>305</v>
+      <c r="A22" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>349</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>306</v>
+      <c r="A23" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>348</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>307</v>
+      <c r="A24" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>350</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>186</v>
@@ -4399,70 +5036,13 @@
       </c>
       <c r="C32" s="21"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="41"/>
-      <c r="C33" s="21"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4470,8 +5050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/TeamAnishaBrittanyReport.xlsx
+++ b/TeamAnishaBrittanyReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StevensUser\Documents\4th Semester\CS555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B118992E-3870-45EA-9BF0-34D128ADC7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6E9CAD-E0FD-4E4E-8D5E-3DA31E2DD324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="634" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="634" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="371">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -661,9 +661,6 @@
     <t>bcd2998</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>T01.01</t>
   </si>
   <si>
@@ -1127,6 +1124,69 @@
   </si>
   <si>
     <t>- If they do, add them to the list</t>
+  </si>
+  <si>
+    <t>Project10.py</t>
+  </si>
+  <si>
+    <t>Project10_Test.py</t>
+  </si>
+  <si>
+    <t>test23</t>
+  </si>
+  <si>
+    <t>test25</t>
+  </si>
+  <si>
+    <t>test27</t>
+  </si>
+  <si>
+    <t>test29</t>
+  </si>
+  <si>
+    <t>us27IncludeIndividualAges</t>
+  </si>
+  <si>
+    <t>us25UniqueFirstNamesInFamilies</t>
+  </si>
+  <si>
+    <t>us23UniqueNameAndBirthDate</t>
+  </si>
+  <si>
+    <t>us29ListDeceased</t>
+  </si>
+  <si>
+    <t>366-379</t>
+  </si>
+  <si>
+    <t>381-392</t>
+  </si>
+  <si>
+    <t>394-399</t>
+  </si>
+  <si>
+    <t>401-415</t>
+  </si>
+  <si>
+    <t>72-74</t>
+  </si>
+  <si>
+    <t>76-80</t>
+  </si>
+  <si>
+    <t>82-88</t>
+  </si>
+  <si>
+    <t>90-91</t>
+  </si>
+  <si>
+    <t>- Integrating often</t>
+  </si>
+  <si>
+    <t>- Reaching out when you need help early in the week</t>
+  </si>
+  <si>
+    <t>- Focusing on the current problems (think about the bigger picture)</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1347,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1395,6 +1455,8 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2570,9 +2632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2642,7 +2702,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2664,9 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2708,7 +2766,7 @@
         <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2725,7 +2783,7 @@
         <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2742,7 +2800,7 @@
         <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2759,7 +2817,7 @@
         <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2776,7 +2834,7 @@
         <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2793,7 +2851,7 @@
         <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2810,7 +2868,7 @@
         <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2827,7 +2885,7 @@
         <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2844,7 +2902,7 @@
         <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2861,7 +2919,7 @@
         <v>185</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2878,7 +2936,7 @@
         <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2895,7 +2953,7 @@
         <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2912,7 +2970,7 @@
         <v>186</v>
       </c>
       <c r="E14" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2929,7 +2987,7 @@
         <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2946,7 +3004,7 @@
         <v>185</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2963,7 +3021,7 @@
         <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2978,7 +3036,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3172,7 +3230,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3316,9 +3374,16 @@
         <f>C5-C6</f>
         <v>4</v>
       </c>
-      <c r="G6" s="9" t="e">
+      <c r="E6" s="21">
+        <f>202+55</f>
+        <v>257</v>
+      </c>
+      <c r="F6" s="21">
+        <v>165</v>
+      </c>
+      <c r="G6" s="9">
         <f>(E6-E5)/F6*60</f>
-        <v>#DIV/0!</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3333,9 +3398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3415,7 +3478,7 @@
         <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3433,22 +3496,22 @@
         <v>42541</v>
       </c>
       <c r="K2" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="L2" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>254</v>
-      </c>
       <c r="P2" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,10 +3521,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>185</v>
@@ -3470,10 +3533,10 @@
     </row>
     <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>185</v>
@@ -3482,10 +3545,10 @@
     </row>
     <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>185</v>
@@ -3505,7 +3568,7 @@
         <v>185</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -3523,30 +3586,30 @@
         <v>42541</v>
       </c>
       <c r="K8" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="O8" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>254</v>
-      </c>
       <c r="P8" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
         <v>185</v>
@@ -3555,10 +3618,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
         <v>185</v>
@@ -3566,10 +3629,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
         <v>185</v>
@@ -3590,7 +3653,7 @@
         <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -3608,22 +3671,22 @@
         <v>42541</v>
       </c>
       <c r="K14" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="O14" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="L14" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="O14" s="29" t="s">
-        <v>254</v>
-      </c>
       <c r="P14" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,7 +3699,7 @@
         <v>154</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
         <v>186</v>
@@ -3647,7 +3710,7 @@
         <v>155</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
         <v>186</v>
@@ -3658,7 +3721,7 @@
         <v>156</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
         <v>186</v>
@@ -3678,7 +3741,7 @@
         <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -3696,22 +3759,22 @@
         <v>42541</v>
       </c>
       <c r="K20" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O20" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="L20" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="O20" s="29" t="s">
-        <v>254</v>
-      </c>
       <c r="P20" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,10 +3784,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s">
         <v>186</v>
@@ -3732,10 +3795,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" t="s">
         <v>186</v>
@@ -3743,10 +3806,10 @@
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
         <v>186</v>
@@ -3770,17 +3833,17 @@
     </row>
     <row r="29" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I31" s="7"/>
     </row>
@@ -3791,7 +3854,7 @@
     </row>
     <row r="34" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3805,9 +3868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3887,7 +3948,7 @@
         <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -3905,30 +3966,30 @@
         <v>42550</v>
       </c>
       <c r="K2" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="L2" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="M2" s="21" t="s">
+      <c r="P2" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>283</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>185</v>
@@ -3936,10 +3997,10 @@
     </row>
     <row r="5" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>185</v>
@@ -3947,10 +4008,10 @@
     </row>
     <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>185</v>
@@ -3967,7 +4028,7 @@
         <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -3985,30 +4046,30 @@
         <v>42550</v>
       </c>
       <c r="K8" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="O8" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="L8" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="M8" s="21" t="s">
+      <c r="P8" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="21" t="s">
         <v>285</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>185</v>
@@ -4016,10 +4077,10 @@
     </row>
     <row r="11" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
         <v>185</v>
@@ -4027,10 +4088,10 @@
     </row>
     <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>185</v>
@@ -4047,7 +4108,7 @@
         <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -4065,30 +4126,30 @@
         <v>42552</v>
       </c>
       <c r="K14" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="O14" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="L14" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="M14" s="41" t="s">
+      <c r="P14" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q14" s="41" t="s">
         <v>288</v>
-      </c>
-      <c r="O14" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q14" s="41" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>186</v>
@@ -4096,10 +4157,10 @@
     </row>
     <row r="17" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C17" t="s">
         <v>186</v>
@@ -4107,10 +4168,10 @@
     </row>
     <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>186</v>
@@ -4127,7 +4188,7 @@
         <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -4145,30 +4206,30 @@
         <v>42552</v>
       </c>
       <c r="K20" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="M20" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="O20" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="L20" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="M20" s="41" t="s">
+      <c r="P20" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q20" s="41" t="s">
         <v>291</v>
-      </c>
-      <c r="O20" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="P20" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q20" s="41" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>186</v>
@@ -4176,10 +4237,10 @@
     </row>
     <row r="23" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" t="s">
         <v>186</v>
@@ -4187,10 +4248,10 @@
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>186</v>
@@ -4211,12 +4272,12 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B29" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,7 +4290,7 @@
     </row>
     <row r="33" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B33" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4324,7 +4385,7 @@
         <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E2" s="21">
         <v>20</v>
@@ -4342,30 +4403,30 @@
         <v>42557</v>
       </c>
       <c r="K2" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="L2" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>330</v>
-      </c>
-      <c r="O2" s="29" t="s">
+      <c r="P2" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="P2" s="28" t="s">
-        <v>322</v>
-      </c>
       <c r="Q2" s="41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>185</v>
@@ -4373,10 +4434,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>185</v>
@@ -4384,10 +4445,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>185</v>
@@ -4404,7 +4465,7 @@
         <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E8" s="21">
         <v>30</v>
@@ -4422,22 +4483,22 @@
         <v>42557</v>
       </c>
       <c r="K8" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="O8" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="L8" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>321</v>
-      </c>
       <c r="P8" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,10 +4506,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>185</v>
@@ -4456,10 +4517,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
         <v>185</v>
@@ -4467,10 +4528,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>185</v>
@@ -4490,7 +4551,7 @@
         <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" s="21">
         <v>25</v>
@@ -4508,30 +4569,30 @@
         <v>42567</v>
       </c>
       <c r="K14" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="O14" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="L14" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="O14" s="29" t="s">
-        <v>321</v>
-      </c>
       <c r="P14" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>186</v>
@@ -4539,10 +4600,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C17" t="s">
         <v>186</v>
@@ -4550,10 +4611,10 @@
     </row>
     <row r="18" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>186</v>
@@ -4570,7 +4631,7 @@
         <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E20" s="21">
         <v>20</v>
@@ -4588,30 +4649,30 @@
         <v>42567</v>
       </c>
       <c r="K20" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="M20" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="O20" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="L20" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="M20" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="O20" s="29" t="s">
-        <v>321</v>
-      </c>
       <c r="P20" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>186</v>
@@ -4619,10 +4680,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>186</v>
@@ -4630,10 +4691,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>186</v>
@@ -4662,13 +4723,13 @@
     </row>
     <row r="29" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="B29" s="48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C30" s="21"/>
     </row>
@@ -4684,7 +4745,7 @@
     </row>
     <row r="33" spans="2:3" ht="41" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C33" s="21"/>
     </row>
@@ -4711,9 +4772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4722,11 +4781,11 @@
     <col min="4" max="4" width="9.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.61328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.07421875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.84375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.84375" customWidth="1"/>
-    <col min="15" max="15" width="8.15234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.921875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.53515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.15234375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4790,7 +4849,7 @@
         <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E2" s="21">
         <v>30</v>
@@ -4798,13 +4857,40 @@
       <c r="F2" s="21">
         <v>75</v>
       </c>
+      <c r="G2" s="21">
+        <v>16</v>
+      </c>
+      <c r="H2" s="21">
+        <v>45</v>
+      </c>
+      <c r="I2" s="38">
+        <v>42582</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>186</v>
@@ -4812,10 +4898,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>186</v>
@@ -4823,10 +4909,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>186</v>
@@ -4843,7 +4929,7 @@
         <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E8" s="21">
         <v>30</v>
@@ -4851,16 +4937,43 @@
       <c r="F8" s="21">
         <v>75</v>
       </c>
+      <c r="G8" s="21">
+        <v>14</v>
+      </c>
+      <c r="H8" s="21">
+        <v>60</v>
+      </c>
+      <c r="I8" s="38">
+        <v>42579</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q8" s="41" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:17" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>185</v>
@@ -4868,10 +4981,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
         <v>185</v>
@@ -4879,10 +4992,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>185</v>
@@ -4902,7 +5015,7 @@
         <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E14" s="21">
         <v>10</v>
@@ -4910,41 +5023,68 @@
       <c r="F14" s="21">
         <v>30</v>
       </c>
+      <c r="G14" s="21">
+        <v>6</v>
+      </c>
+      <c r="H14" s="21">
+        <v>20</v>
+      </c>
+      <c r="I14" s="38">
+        <v>42570</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q14" s="41" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>140</v>
       </c>
@@ -4955,7 +5095,7 @@
         <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E20" s="21">
         <v>20</v>
@@ -4963,81 +5103,114 @@
       <c r="F20" s="21">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="21">
+        <v>19</v>
+      </c>
+      <c r="H20" s="21">
+        <v>40</v>
+      </c>
+      <c r="I20" s="38">
+        <v>42582</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="M20" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="P20" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q20" s="41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C24" s="36" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="21"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B27" s="39"/>
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="21"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="40"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="52" t="s">
+        <v>368</v>
+      </c>
       <c r="C29" s="21"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="40"/>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="52" t="s">
+        <v>369</v>
+      </c>
       <c r="C30" s="21"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B31" s="40"/>
       <c r="C31" s="21"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B32" s="39" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="21"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="21"/>
+      <c r="B33" s="50" t="s">
+        <v>370</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5050,9 +5223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5336,7 +5507,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="51" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="19" t="s">
